--- a/resources/documents/VM results.xlsx
+++ b/resources/documents/VM results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40231992\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lreid\outlier-detection-in-virtual-machines\resources\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147B1822-5785-4677-9A09-06269FA78CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="432" yWindow="6228" windowWidth="17280" windowHeight="6012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -141,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,27 +453,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" customWidth="1"/>
+    <col min="13" max="13" width="25.88671875" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
     <col min="19" max="19" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -522,7 +523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -545,7 +546,7 @@
         <v>88.9</v>
       </c>
       <c r="H2">
-        <v>6.4935999999999998</v>
+        <v>16.6477</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -572,7 +573,7 @@
         <v>20.479399999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -595,7 +596,7 @@
         <v>31.3</v>
       </c>
       <c r="H3">
-        <v>6.7717000000000001</v>
+        <v>29.541799999999999</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -622,7 +623,7 @@
         <v>19.7578</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -645,7 +646,7 @@
         <v>30</v>
       </c>
       <c r="H4">
-        <v>6.9669999999999996</v>
+        <v>32.736499999999999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -672,7 +673,7 @@
         <v>11.2874</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -695,7 +696,7 @@
         <v>39.5</v>
       </c>
       <c r="H5">
-        <v>6.5468999999999999</v>
+        <v>23.434100000000001</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -722,7 +723,7 @@
         <v>16.849399999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -745,7 +746,7 @@
         <v>73.8</v>
       </c>
       <c r="H6">
-        <v>7.6593</v>
+        <v>22.102799999999998</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -772,7 +773,7 @@
         <v>10.5351</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -795,7 +796,7 @@
         <v>90.7</v>
       </c>
       <c r="H7">
-        <v>7.1889000000000003</v>
+        <v>22.145299999999999</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -822,7 +823,7 @@
         <v>10.462400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -845,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.2619999999999996</v>
+        <v>22.267499999999998</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -872,7 +873,7 @@
         <v>17.366900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -895,7 +896,7 @@
         <v>49.6</v>
       </c>
       <c r="H9">
-        <v>7.6805000000000003</v>
+        <v>22.410399999999999</v>
       </c>
       <c r="K9">
         <v>8</v>
@@ -922,7 +923,7 @@
         <v>10.932499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -945,7 +946,7 @@
         <v>84.8</v>
       </c>
       <c r="H10">
-        <v>8.1605000000000008</v>
+        <v>22.5626</v>
       </c>
       <c r="K10">
         <v>9</v>
@@ -972,7 +973,7 @@
         <v>16.890599999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -994,7 +995,7 @@
       </c>
       <c r="H11">
         <f>AVERAGE(H2:H10)</f>
-        <v>7.1922666666666668</v>
+        <v>23.760966666666668</v>
       </c>
       <c r="M11" t="s">
         <v>26</v>
@@ -1020,17 +1021,17 @@
         <v>14.951277777777777</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>60.6</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>16.903199999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>17.014299999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>16.776800000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>16.716799999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1327,7 +1328,7 @@
         <v>17.0946</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>16.7956</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>16.375399999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L31">
         <v>8</v>
       </c>
@@ -1439,7 +1440,7 @@
         <v>16.856000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L32">
         <v>9</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>16.856000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N33" t="s">
         <v>26</v>
       </c>
@@ -1490,12 +1491,12 @@
         <v>16.820966666666667</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>4.6635999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>6.7146999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>12.5101</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>10.318300000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>8.2063000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>6</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>11.1768</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>7</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>13.3392</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8</v>
       </c>
@@ -1729,7 +1730,7 @@
         <v>12.802300000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>26.171700000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>26</v>
       </c>

--- a/resources/documents/VM results.xlsx
+++ b/resources/documents/VM results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Microwave\outlier-detection-in-virtual-machines\resources\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11140ADF-1DEB-4ADE-A601-ED71A958262C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CB68E2-0CFA-4C15-96D2-E45500DBD40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="6210" windowWidth="12060" windowHeight="7260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6435" yWindow="5805" windowWidth="10845" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>99.97</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -550,16 +550,16 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>56.2</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G3">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H3">
         <v>21.632300000000001</v>
@@ -591,16 +591,16 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>33.299999999999997</v>
+        <v>43.23</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G4">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="H4">
         <v>25.660699999999999</v>
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>89.2</v>
+        <v>99.2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>91.4</v>
+        <v>99.9</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -682,7 +682,7 @@
         <v>20</v>
       </c>
       <c r="G6">
-        <v>28.6</v>
+        <v>28.57</v>
       </c>
       <c r="H6">
         <v>14.4061</v>
@@ -714,7 +714,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>99.98</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>70.3</v>
+        <v>70.260000000000005</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>90.1</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -805,7 +805,7 @@
         <v>100</v>
       </c>
       <c r="G9">
-        <v>66.7</v>
+        <v>66.67</v>
       </c>
       <c r="H9">
         <v>13.734</v>
@@ -837,7 +837,7 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>90</v>
+        <v>99.98</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -873,7 +873,7 @@
       </c>
       <c r="D11">
         <f t="shared" ref="D11" si="0">AVERAGE(D2:D10)</f>
-        <v>77.833333333333329</v>
+        <v>86.513333333333335</v>
       </c>
       <c r="E11">
         <f>AVERAGE(E2:E7,E9,E10)</f>
@@ -881,11 +881,11 @@
       </c>
       <c r="F11">
         <f t="shared" ref="F11:G11" si="1">AVERAGE(F2:F7,F9,F10)</f>
-        <v>27.524999999999999</v>
+        <v>27.53</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>24.475000000000001</v>
+        <v>24.462499999999999</v>
       </c>
       <c r="H11">
         <f>AVERAGE(H2:H10)</f>
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>90</v>
+        <v>99.98</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -974,16 +974,16 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>67.8</v>
+        <v>77.75</v>
       </c>
       <c r="E17">
         <v>100</v>
       </c>
       <c r="F17">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G17">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="H17">
         <v>7.2271000000000001</v>
@@ -1000,16 +1000,16 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <v>68.3</v>
+        <v>78.17</v>
       </c>
       <c r="E18">
         <v>100</v>
       </c>
       <c r="F18">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="G18">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="H18">
         <v>8.7147000000000006</v>
@@ -1026,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <v>89.9</v>
+        <v>99.93</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1052,13 +1052,13 @@
         <v>12</v>
       </c>
       <c r="D20">
-        <v>91.4</v>
+        <v>99.88</v>
       </c>
       <c r="E20">
         <v>50</v>
       </c>
       <c r="F20">
-        <v>16.7</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="G20">
         <v>25</v>
@@ -1078,7 +1078,7 @@
         <v>14</v>
       </c>
       <c r="D21">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>16</v>
       </c>
       <c r="D22">
-        <v>76.8</v>
+        <v>76.81</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>18</v>
       </c>
       <c r="D23">
-        <v>90.1</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <v>50</v>
@@ -1139,7 +1139,7 @@
         <v>100</v>
       </c>
       <c r="G23">
-        <v>66.7</v>
+        <v>66.67</v>
       </c>
       <c r="H23">
         <v>5.0815999999999999</v>
@@ -1156,16 +1156,16 @@
         <v>20</v>
       </c>
       <c r="D24">
-        <v>89.9</v>
+        <v>99.85</v>
       </c>
       <c r="E24">
         <v>50</v>
       </c>
       <c r="F24">
-        <v>14.3</v>
+        <v>14.29</v>
       </c>
       <c r="G24">
-        <v>22.2</v>
+        <v>22.22</v>
       </c>
       <c r="H24">
         <v>6.8909000000000002</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="D25">
         <f>AVERAGE(D16:D24)</f>
-        <v>83.8</v>
+        <v>92.48555555555555</v>
       </c>
       <c r="E25">
         <f t="shared" ref="E25:H25" si="3">AVERAGE(E16:E24)</f>
@@ -1185,11 +1185,11 @@
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>20.155555555555559</v>
+        <v>20.156666666666666</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>18.311111111111114</v>
+        <v>18.308888888888887</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
